--- a/Тест_разное.xlsx
+++ b/Тест_разное.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A45637F-2FC9-4CCC-8C8A-226C36941E46}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EA301B-DA08-4495-8051-98F2EEA80AC2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21945" windowHeight="8370" xr2:uid="{5BC418B1-29F1-4465-BC94-E59D8AF992B4}"/>
   </bookViews>
@@ -219,19 +219,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>36.765634247702934</c:v>
+                  <c:v>96.262636873958542</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37.412930360393204</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36.24921887164421</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28.72264804480907</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.533290675145828</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -633,6 +633,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="352268543"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -859,19 +860,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>61.765634247702934</c:v>
+                  <c:v>121.26263687395854</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>62.412930360393204</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>61.24921887164421</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>53.72264804480907</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36.533290675145828</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>25</c:v>
@@ -1007,31 +1008,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>19.562253587043735</c:v>
+                  <c:v>1.0765095795122264</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.296218537850489</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.506438949024865</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.77692646467986</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28.11374978626586</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.963766094728669</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>38.181761123718474</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43.783590352569114</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>49.707128329641179</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>50</c:v>
@@ -1423,19 +1424,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>36.765634247702934</c:v>
+                  <c:v>96.262636873958542</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37.412930360393204</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36.24921887164421</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28.72264804480907</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.533290675145828</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -1571,31 +1572,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>30.437746412956265</c:v>
+                  <c:v>48.923490420487774</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.703781462149511</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.493561050975135</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.22307353532014</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.88625021373414</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.036233905271331</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.818238876281526</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.2164096474308863</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.29287167035882078</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -1846,6 +1847,373 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$E$51:$E$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21970</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28561</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37129.300000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48268.090000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>62748.517000000007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>81573.072100000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>106044.99373000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>137858.49184900001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>179216.03940370004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>232980.85122481006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$F$51:$F$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1.0060932116091901</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0082186328588862</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0109885805986791</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0146011738550775</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0193172525073839</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0254814602934728</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0335512167747607</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.044137024147775</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0580593332036983</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0764300184823958</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1007710544698384</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1331903565149934</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1766468135655956</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9E7D-4B1B-A7D5-F17801E717EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1139353360"/>
+        <c:axId val="938963792"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1139353360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="938963792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="938963792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1139353360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1966,6 +2334,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2999,6 +3407,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3628,6 +4552,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>338137</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49A30BC8-34F4-4D23-A08E-81306541C635}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3643,6 +4603,10 @@
       <definedName name="EncodePVTstring"/>
       <definedName name="ESP_dP_atma"/>
       <definedName name="ESP_IDbyRate"/>
+      <definedName name="PVT_Bg_m3m3"/>
+      <definedName name="unf_Calc_Bw_m3m3"/>
+      <definedName name="unf_Calc_BwSC_d"/>
+      <definedName name="unf_Calc_Sal_BwSC_ppm"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -3950,10 +4914,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9B55CD3-F4A6-494B-BC80-F57B633F2037}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="B2:L21"/>
+  <dimension ref="B2:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3967,9 +4931,9 @@
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="K3" t="str">
-        <f>[1]!EncodePVTstring(23.3324,32)</f>
-        <v>P_atma:23.332;T_C:32.000;gamma_gas:0.600;gamma_oil:0.860;gamma_wat:1.000;rsb_m3m3:100.000;Rp_m3m3:-1.000;Pb_atma:-1.000;Tres_C:90.000;Bob_m3m3:-1.000;Muob_cP:-1.000;PVTcorr:0;Ksep_fr:0.000;PKsep_atma:-1.000;TKsep_C:-1.000;</v>
+      <c r="K3" t="e">
+        <f ca="1">[1]!EncodePVTstring()</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
@@ -3980,9 +4944,9 @@
         <f>[1]!ESP_IDbyRate(B4)</f>
         <v>1006</v>
       </c>
-      <c r="K4" t="str">
-        <f>[1]!DecodePVTstring(K3)</f>
-        <v>P_atma:23.332;T_C:32.000;gamma_gas:0.600;gamma_oil:0.860;gamma_wat:1.000;rsb_m3m3:100.000;Rp_m3m3:-1.000;Pb_atma:-1.000;Tres_C:90.000;Bob_m3m3:-1.000;Muob_cP:-1.000;PVTcorr:0;Ksep_fr:0.000;PKsep_atma:-1.000;TKsep_C:-1.000;</v>
+      <c r="K4" t="e">
+        <f ca="1">[1]!DecodePVTstring(K3,E2)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
@@ -3991,25 +4955,25 @@
       </c>
       <c r="E6">
         <f t="array" ref="E6:F6">[1]!ESP_dP_atma($E$2,D6,0,200,,$C$4,,,,,,,,,,,,,,45,50)</f>
-        <v>36.765634247702934</v>
+        <v>96.262636873958542</v>
       </c>
       <c r="F6">
         <v>4.9999999999997158</v>
       </c>
       <c r="H6">
         <f t="array" ref="H6:I6">[1]!ESP_dP_atma($H$2,D6,0,200,,$C$4,,,,,,,,,,,,,,45,50,0)</f>
-        <v>30.437746412956265</v>
+        <v>48.923490420487774</v>
       </c>
       <c r="I6">
         <v>5</v>
       </c>
       <c r="K6">
         <f>$E$2+E6</f>
-        <v>61.765634247702934</v>
+        <v>121.26263687395854</v>
       </c>
       <c r="L6">
         <f>$H$2-H6</f>
-        <v>19.562253587043735</v>
+        <v>1.0765095795122264</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
@@ -4019,25 +4983,25 @@
       </c>
       <c r="E7">
         <f t="array" ref="E7:F7">[1]!ESP_dP_atma($E$2,D7,0,200,,$C$4,,,,,,,,,,,,,,45,50)</f>
-        <v>37.412930360393204</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>4.9999999999997158</v>
       </c>
       <c r="H7">
         <f t="array" ref="H7:I7">[1]!ESP_dP_atma($H$2,D7,0,200,,$C$4,,,,,,,,,,,,,,45,50,0)</f>
-        <v>30.703781462149511</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>5</v>
       </c>
       <c r="K7">
         <f t="shared" ref="K7:K21" si="0">$E$2+E7</f>
-        <v>62.412930360393204</v>
+        <v>25</v>
       </c>
       <c r="L7">
         <f t="shared" ref="L7:L21" si="1">$H$2-H7</f>
-        <v>19.296218537850489</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
@@ -4047,25 +5011,25 @@
       </c>
       <c r="E8">
         <f t="array" ref="E8:F8">[1]!ESP_dP_atma($E$2,D8,0,200,,$C$4,,,,,,,,,,,,,,45,50)</f>
-        <v>36.24921887164421</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>4.9999999999997158</v>
       </c>
       <c r="H8">
         <f t="array" ref="H8:I8">[1]!ESP_dP_atma($H$2,D8,0,200,,$C$4,,,,,,,,,,,,,,45,50,0)</f>
-        <v>29.493561050975135</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>5</v>
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>61.24921887164421</v>
+        <v>25</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>20.506438949024865</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
@@ -4075,25 +5039,25 @@
       </c>
       <c r="E9">
         <f t="array" ref="E9:F9">[1]!ESP_dP_atma($E$2,D9,0,200,,$C$4,,,,,,,,,,,,,,45,50)</f>
-        <v>28.72264804480907</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>4.9999999999997158</v>
       </c>
       <c r="H9">
         <f t="array" ref="H9:I9">[1]!ESP_dP_atma($H$2,D9,0,200,,$C$4,,,,,,,,,,,,,,45,50,0)</f>
-        <v>26.22307353532014</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>5</v>
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>53.72264804480907</v>
+        <v>25</v>
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>23.77692646467986</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
@@ -4103,25 +5067,25 @@
       </c>
       <c r="E10">
         <f t="array" ref="E10:F10">[1]!ESP_dP_atma($E$2,D10,0,200,,$C$4,,,,,,,,,,,,,,45,50)</f>
-        <v>11.533290675145828</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>4.9999999999997158</v>
       </c>
       <c r="H10">
         <f t="array" ref="H10:I10">[1]!ESP_dP_atma($H$2,D10,0,200,,$C$4,,,,,,,,,,,,,,45,50,0)</f>
-        <v>21.88625021373414</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>5</v>
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>36.533290675145828</v>
+        <v>25</v>
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
-        <v>28.11374978626586</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
@@ -4138,7 +5102,7 @@
       </c>
       <c r="H11">
         <f t="array" ref="H11:I11">[1]!ESP_dP_atma($H$2,D11,0,200,,$C$4,,,,,,,,,,,,,,45,50,0)</f>
-        <v>17.036233905271331</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>5</v>
@@ -4149,7 +5113,7 @@
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
-        <v>32.963766094728669</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
@@ -4166,7 +5130,7 @@
       </c>
       <c r="H12">
         <f t="array" ref="H12:I12">[1]!ESP_dP_atma($H$2,D12,0,200,,$C$4,,,,,,,,,,,,,,45,50,0)</f>
-        <v>11.818238876281526</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>5</v>
@@ -4177,7 +5141,7 @@
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
-        <v>38.181761123718474</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
@@ -4194,7 +5158,7 @@
       </c>
       <c r="H13">
         <f t="array" ref="H13:I13">[1]!ESP_dP_atma($H$2,D13,0,200,,$C$4,,,,,,,,,,,,,,45,50,0)</f>
-        <v>6.2164096474308863</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>5</v>
@@ -4205,7 +5169,7 @@
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
-        <v>43.783590352569114</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
@@ -4222,7 +5186,7 @@
       </c>
       <c r="H14">
         <f t="array" ref="H14:I14">[1]!ESP_dP_atma($H$2,D14,0,200,,$C$4,,,,,,,,,,,,,,45,50,0)</f>
-        <v>0.29287167035882078</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>5</v>
@@ -4233,7 +5197,7 @@
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>49.707128329641179</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
@@ -4430,6 +5394,298 @@
       <c r="L21">
         <f t="shared" si="1"/>
         <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="H28" t="e">
+        <f ca="1">[1]!PVT_Bg_m3m3(23,32,1,,,,,,,,,,,,,K3)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="43" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43">
+        <v>3</v>
+      </c>
+      <c r="H43">
+        <v>4</v>
+      </c>
+      <c r="I43">
+        <v>5</v>
+      </c>
+      <c r="J43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E44">
+        <v>300</v>
+      </c>
+      <c r="F44">
+        <v>300</v>
+      </c>
+      <c r="G44">
+        <v>300</v>
+      </c>
+      <c r="H44">
+        <v>300</v>
+      </c>
+      <c r="I44">
+        <v>300</v>
+      </c>
+      <c r="J44">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="45" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E45">
+        <f>[1]!unf_Calc_Bw_m3m3(E43,E44)</f>
+        <v>1.004114380600766</v>
+      </c>
+      <c r="F45">
+        <f>[1]!unf_Calc_Bw_m3m3(F43,F44)</f>
+        <v>1.004024190842421</v>
+      </c>
+      <c r="G45">
+        <f>[1]!unf_Calc_Bw_m3m3(G43,G44)</f>
+        <v>1.0039238963249648</v>
+      </c>
+      <c r="H45">
+        <f>[1]!unf_Calc_Bw_m3m3(H43,H44)</f>
+        <v>1.0038134970483978</v>
+      </c>
+      <c r="I45">
+        <f>[1]!unf_Calc_Bw_m3m3(I43,I44)</f>
+        <v>1.0036929930127199</v>
+      </c>
+      <c r="J45">
+        <f>[1]!unf_Calc_Bw_m3m3(J43,J44)</f>
+        <v>1.0035623842179309</v>
+      </c>
+    </row>
+    <row r="48" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <v>20000</v>
+      </c>
+      <c r="G48">
+        <v>30000</v>
+      </c>
+      <c r="H48">
+        <v>40000</v>
+      </c>
+      <c r="I48">
+        <v>50000</v>
+      </c>
+      <c r="J48">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="49" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <f>[1]!unf_Calc_BwSC_d(F48)</f>
+        <v>1.0131958981257601</v>
+      </c>
+      <c r="G49">
+        <f>[1]!unf_Calc_BwSC_d(G48)</f>
+        <v>1.02034986754971</v>
+      </c>
+      <c r="H49">
+        <f>[1]!unf_Calc_BwSC_d(H48)</f>
+        <v>1.0275551198810402</v>
+      </c>
+      <c r="I49">
+        <f>[1]!unf_Calc_BwSC_d(I48)</f>
+        <v>1.0348116551197502</v>
+      </c>
+      <c r="J49">
+        <f>[1]!unf_Calc_BwSC_d(J48)</f>
+        <v>1.0421194732658401</v>
+      </c>
+    </row>
+    <row r="51" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E51">
+        <v>10000</v>
+      </c>
+      <c r="F51">
+        <f>[1]!unf_Calc_BwSC_d(E51)</f>
+        <v>1.0060932116091901</v>
+      </c>
+      <c r="G51">
+        <f>[1]!unf_Calc_Sal_BwSC_ppm(F51)</f>
+        <v>9999.9999999971587</v>
+      </c>
+    </row>
+    <row r="52" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E52">
+        <f>E51*1.3</f>
+        <v>13000</v>
+      </c>
+      <c r="F52">
+        <f>[1]!unf_Calc_BwSC_d(E52)</f>
+        <v>1.0082186328588862</v>
+      </c>
+      <c r="G52">
+        <f>[1]!unf_Calc_Sal_BwSC_ppm(F52)</f>
+        <v>12999.999999996988</v>
+      </c>
+    </row>
+    <row r="53" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E53">
+        <f t="shared" ref="E53:E63" si="4">E52*1.3</f>
+        <v>16900</v>
+      </c>
+      <c r="F53">
+        <f>[1]!unf_Calc_BwSC_d(E53)</f>
+        <v>1.0109885805986791</v>
+      </c>
+      <c r="G53">
+        <f>[1]!unf_Calc_Sal_BwSC_ppm(F53)</f>
+        <v>16899.999999997133</v>
+      </c>
+    </row>
+    <row r="54" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E54">
+        <f t="shared" si="4"/>
+        <v>21970</v>
+      </c>
+      <c r="F54">
+        <f>[1]!unf_Calc_BwSC_d(E54)</f>
+        <v>1.0146011738550775</v>
+      </c>
+      <c r="G54">
+        <f>[1]!unf_Calc_Sal_BwSC_ppm(F54)</f>
+        <v>21969.9999999969</v>
+      </c>
+    </row>
+    <row r="55" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E55">
+        <f t="shared" si="4"/>
+        <v>28561</v>
+      </c>
+      <c r="F55">
+        <f>[1]!unf_Calc_BwSC_d(E55)</f>
+        <v>1.0193172525073839</v>
+      </c>
+      <c r="G55">
+        <f>[1]!unf_Calc_Sal_BwSC_ppm(F55)</f>
+        <v>28560.999999996853</v>
+      </c>
+    </row>
+    <row r="56" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E56">
+        <f t="shared" si="4"/>
+        <v>37129.300000000003</v>
+      </c>
+      <c r="F56">
+        <f>[1]!unf_Calc_BwSC_d(E56)</f>
+        <v>1.0254814602934728</v>
+      </c>
+      <c r="G56">
+        <f>[1]!unf_Calc_Sal_BwSC_ppm(F56)</f>
+        <v>37129.299999997158</v>
+      </c>
+    </row>
+    <row r="57" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E57">
+        <f t="shared" si="4"/>
+        <v>48268.090000000004</v>
+      </c>
+      <c r="F57">
+        <f>[1]!unf_Calc_BwSC_d(E57)</f>
+        <v>1.0335512167747607</v>
+      </c>
+      <c r="G57">
+        <f>[1]!unf_Calc_Sal_BwSC_ppm(F57)</f>
+        <v>48268.089999996846</v>
+      </c>
+    </row>
+    <row r="58" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E58">
+        <f t="shared" si="4"/>
+        <v>62748.517000000007</v>
+      </c>
+      <c r="F58">
+        <f>[1]!unf_Calc_BwSC_d(E58)</f>
+        <v>1.044137024147775</v>
+      </c>
+      <c r="G58">
+        <f>[1]!unf_Calc_Sal_BwSC_ppm(F58)</f>
+        <v>62748.516999996864</v>
+      </c>
+    </row>
+    <row r="59" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E59">
+        <f t="shared" si="4"/>
+        <v>81573.072100000005</v>
+      </c>
+      <c r="F59">
+        <f>[1]!unf_Calc_BwSC_d(E59)</f>
+        <v>1.0580593332036983</v>
+      </c>
+      <c r="G59">
+        <f>[1]!unf_Calc_Sal_BwSC_ppm(F59)</f>
+        <v>81573.072099997153</v>
+      </c>
+    </row>
+    <row r="60" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E60">
+        <f t="shared" si="4"/>
+        <v>106044.99373000002</v>
+      </c>
+      <c r="F60">
+        <f>[1]!unf_Calc_BwSC_d(E60)</f>
+        <v>1.0764300184823958</v>
+      </c>
+      <c r="G60">
+        <f>[1]!unf_Calc_Sal_BwSC_ppm(F60)</f>
+        <v>106044.99372999725</v>
+      </c>
+    </row>
+    <row r="61" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E61">
+        <f t="shared" si="4"/>
+        <v>137858.49184900001</v>
+      </c>
+      <c r="F61">
+        <f>[1]!unf_Calc_BwSC_d(E61)</f>
+        <v>1.1007710544698384</v>
+      </c>
+      <c r="G61">
+        <f>[1]!unf_Calc_Sal_BwSC_ppm(F61)</f>
+        <v>137858.4918489969</v>
+      </c>
+    </row>
+    <row r="62" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E62">
+        <f t="shared" si="4"/>
+        <v>179216.03940370004</v>
+      </c>
+      <c r="F62">
+        <f>[1]!unf_Calc_BwSC_d(E62)</f>
+        <v>1.1331903565149934</v>
+      </c>
+      <c r="G62">
+        <f>[1]!unf_Calc_Sal_BwSC_ppm(F62)</f>
+        <v>179216.03940369692</v>
+      </c>
+    </row>
+    <row r="63" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E63">
+        <f t="shared" si="4"/>
+        <v>232980.85122481006</v>
+      </c>
+      <c r="F63">
+        <f>[1]!unf_Calc_BwSC_d(E63)</f>
+        <v>1.1766468135655956</v>
+      </c>
+      <c r="G63">
+        <f>[1]!unf_Calc_Sal_BwSC_ppm(F63)</f>
+        <v>232980.85122480729</v>
       </c>
     </row>
   </sheetData>

--- a/Тест_разное.xlsx
+++ b/Тест_разное.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EA301B-DA08-4495-8051-98F2EEA80AC2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477BEAF7-28F4-40D2-AB90-C3CF3E4A82D0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21945" windowHeight="8370" xr2:uid="{5BC418B1-29F1-4465-BC94-E59D8AF992B4}"/>
   </bookViews>
@@ -4599,11 +4599,11 @@
       <sheetName val="Лист1"/>
     </sheetNames>
     <definedNames>
-      <definedName name="DecodePVTstring"/>
-      <definedName name="EncodePVTstring"/>
       <definedName name="ESP_dP_atma"/>
       <definedName name="ESP_IDbyRate"/>
       <definedName name="PVT_Bg_m3m3"/>
+      <definedName name="PVT_Decode_string"/>
+      <definedName name="PVT_Encode_string"/>
       <definedName name="unf_Calc_Bw_m3m3"/>
       <definedName name="unf_Calc_BwSC_d"/>
       <definedName name="unf_Calc_Sal_BwSC_ppm"/>
@@ -4916,8 +4916,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="B2:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H69" sqref="H69"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4931,9 +4931,9 @@
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="K3" t="e">
-        <f ca="1">[1]!EncodePVTstring()</f>
-        <v>#NAME?</v>
+      <c r="K3" t="str">
+        <f>[1]!PVT_Encode_string()</f>
+        <v>gamma_gas:0.600;gamma_oil:0.860;gamma_wat:1.000;rsb_m3m3:100.000;Rp_m3m3:-1.000;Pb_atma:-1.000;Tres_C:90.000;Bob_m3m3:-1.000;Muob_cP:-1.000;PVTcorr:0;Ksep_fr:0.000;PKsep_atma:-1.000;TKsep_C:-1.000;</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
@@ -4944,9 +4944,9 @@
         <f>[1]!ESP_IDbyRate(B4)</f>
         <v>1006</v>
       </c>
-      <c r="K4" t="e">
-        <f ca="1">[1]!DecodePVTstring(K3,E2)</f>
-        <v>#NAME?</v>
+      <c r="K4" t="str">
+        <f>[1]!PVT_Decode_string(K3,E2)</f>
+        <v>gamma_gas:0.600;gamma_oil:0.860;gamma_wat:1.000;rsb_m3m3:100.000;Rp_m3m3:-1.000;Pb_atma:-1.000;Tres_C:90.000;Bob_m3m3:-1.000;Muob_cP:-1.000;PVTcorr:0;Ksep_fr:0.000;PKsep_atma:-1.000;TKsep_C:-1.000;</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
@@ -5397,9 +5397,9 @@
       </c>
     </row>
     <row r="28" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="H28" t="e">
-        <f ca="1">[1]!PVT_Bg_m3m3(23,32,1,,,,,,,,,,,,,K3)</f>
-        <v>#VALUE!</v>
+      <c r="H28">
+        <f>[1]!PVT_Bg_m3m3(23,32,1,,,,,,,,,,,,,K3)</f>
+        <v>4.4104151243123474E-2</v>
       </c>
     </row>
     <row r="43" spans="5:10" x14ac:dyDescent="0.25">
